--- a/VerveStacks_CHN/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_CHN/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17E17952-DE4B-4B27-B53D-E9D7A5AD8A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5477821D-6A84-4DAD-A32F-6E431B944B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -207,10 +207,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>RaD,RaP,FaP,SaP,WaD,FaD,SaD,WaP</t>
-  </si>
-  <si>
-    <t>WaP,RaP,FaP,SaP,SaN,WaN,FaN,RaN</t>
+    <t>RaP,SaD,WaP,FaD,RaD,WaD,FaP,SaP</t>
+  </si>
+  <si>
+    <t>SaN,WaN,FaP,SaP,RaN,RaP,WaP,FaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -813,7 +813,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>WaP,RaP,FaP,SaP,SaN,WaN,FaN,RaN</v>
+        <v>SaN,WaN,FaP,SaP,RaN,RaP,WaP,FaN</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -845,7 +845,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>RaD,RaP,FaP,SaP,WaD,FaD,SaD,WaP</v>
+        <v>RaP,SaD,WaP,FaD,RaD,WaD,FaP,SaP</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -861,7 +861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB472D29-8B17-4165-83B7-C2D2FCBEC194}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D6165E-956F-46E9-AE35-16F8349E38E3}">
   <dimension ref="A9:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1256,10 +1256,10 @@
         <v>0.23103124479949266</v>
       </c>
       <c r="AK13" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AL13">
-        <v>0.31657938220904136</v>
+        <v>0.41098223272386714</v>
       </c>
       <c r="AM13" t="s">
         <v>62</v>
@@ -1336,10 +1336,10 @@
         <v>0.30898839959492852</v>
       </c>
       <c r="AK14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AL14">
-        <v>0.41098223272386714</v>
+        <v>0.31657938220904136</v>
       </c>
       <c r="AM14" t="s">
         <v>62</v>

--- a/VerveStacks_CHN/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_CHN/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5477821D-6A84-4DAD-A32F-6E431B944B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F06CF766-9602-48A7-AD39-F3B2D9DF08F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -207,10 +207,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>RaP,SaD,WaP,FaD,RaD,WaD,FaP,SaP</t>
-  </si>
-  <si>
-    <t>SaN,WaN,FaP,SaP,RaN,RaP,WaP,FaN</t>
+    <t>SaD,WaP,RaD,WaD,FaP,SaP,RaP,FaD</t>
+  </si>
+  <si>
+    <t>FaP,SaP,RaN,FaN,RaP,SaN,WaN,WaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -813,7 +813,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>SaN,WaN,FaP,SaP,RaN,RaP,WaP,FaN</v>
+        <v>FaP,SaP,RaN,FaN,RaP,SaN,WaN,WaP</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -845,7 +845,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>RaP,SaD,WaP,FaD,RaD,WaD,FaP,SaP</v>
+        <v>SaD,WaP,RaD,WaD,FaP,SaP,RaP,FaD</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -861,7 +861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D6165E-956F-46E9-AE35-16F8349E38E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782163B5-F787-4177-B2ED-27E5EB92A566}">
   <dimension ref="A9:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1084,10 +1084,10 @@
         <v>0.29117197338329759</v>
       </c>
       <c r="AK11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL11">
-        <v>0.2082985720513911</v>
+        <v>0.41098223272386714</v>
       </c>
       <c r="AM11" t="s">
         <v>62</v>
@@ -1256,10 +1256,10 @@
         <v>0.23103124479949266</v>
       </c>
       <c r="AK13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AL13">
-        <v>0.41098223272386714</v>
+        <v>0.31657938220904136</v>
       </c>
       <c r="AM13" t="s">
         <v>62</v>
@@ -1336,10 +1336,10 @@
         <v>0.30898839959492852</v>
       </c>
       <c r="AK14" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AL14">
-        <v>0.31657938220904136</v>
+        <v>0.2082985720513911</v>
       </c>
       <c r="AM14" t="s">
         <v>62</v>
